--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -486,11 +486,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Admin@123</t>
+          <t>e86f78a8a3caf0b60d8e74e5942aa6d86dc150cd3c03338aef25b7d2d7e3acc7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="b">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Res@123</t>
+          <t>7b78747a61279330a9086864104ece9bbd2be851d0e74986bdc19809c394b0b0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nur@123</t>
+          <t>f604629b77143efece161e42ebe5ad464baa6f58b1077932a8b1292eac2f0834</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -557,7 +557,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mary@123</t>
+          <t>fffee4a8a2c09028f49cdcdb3d39e94f9d2795e505dea2516c55298c3802e1fd</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>John@123</t>
+          <t>0f4dd6c67bc8c827a2b181bc763f9ab96166d8f50840fe1ae0bbc0e77464da2c</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mic@123</t>
+          <t>08110a25f742f4e0c2a19b9f7e2ec0e6fb9ffdbe14f8655ec3b71283e28eaae1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -626,7 +626,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RXJzIpIn</t>
+          <t>648863124a452e8c5fc4767924c38e94d7b7d7bc3deac3b758ba03d71441d6e1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
